--- a/database/industries/felezat/fasmin/product/quarterly.xlsx
+++ b/database/industries/felezat/fasmin/product/quarterly.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -548,16 +563,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I113"/>
+  <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -566,8 +581,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +598,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,8 +615,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -600,8 +630,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -612,8 +647,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -624,8 +664,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,8 +679,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -656,8 +706,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -666,13 +731,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -682,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -690,133 +760,223 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1387</v>
+      </c>
+      <c r="F11" s="11">
+        <v>814</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1231</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1334</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1370</v>
+      </c>
+      <c r="J11" s="11">
         <v>774</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>982</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>913</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>1058</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1004</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>7687</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8931</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8878</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9671</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9000</v>
+      </c>
+      <c r="J12" s="9">
         <v>10564</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>9890</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>11034</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>15989</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>10576</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="E13" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>40469</v>
+      </c>
+      <c r="F14" s="9">
+        <v>39886</v>
+      </c>
+      <c r="G14" s="9">
+        <v>33801</v>
+      </c>
+      <c r="H14" s="9">
+        <v>48344</v>
+      </c>
+      <c r="I14" s="9">
+        <v>54816</v>
+      </c>
+      <c r="J14" s="9">
         <v>21813</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>41901</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>51245</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>50797</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>48101</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>15</v>
+      <c r="E15" s="11">
+        <v>9807</v>
       </c>
       <c r="F15" s="11">
+        <v>5205</v>
+      </c>
+      <c r="G15" s="11">
+        <v>545</v>
+      </c>
+      <c r="H15" s="11">
+        <v>585</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11">
         <v>6916</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>8644</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>9793</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>12108</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -834,170 +994,290 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
+      <c r="E18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>0</v>
+      <c r="E19" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>610174</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>-610174</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>59350</v>
+      </c>
+      <c r="F23" s="13">
+        <v>54836</v>
+      </c>
+      <c r="G23" s="13">
+        <v>47205</v>
+      </c>
+      <c r="H23" s="13">
+        <v>59934</v>
+      </c>
+      <c r="I23" s="13">
+        <v>65186</v>
+      </c>
+      <c r="J23" s="13">
         <v>33151</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>59689</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>71836</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>687811</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>-538385</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1006,8 +1286,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1016,8 +1301,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1026,10 +1316,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1048,8 +1343,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1058,13 +1368,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1073,8 +1388,8 @@
       <c r="F29" s="9">
         <v>0</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
+      <c r="G29" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -1082,178 +1397,298 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>2655</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1970</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1717</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1514</v>
+      </c>
+      <c r="J30" s="11">
         <v>1023</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>145</v>
       </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
         <v>2477</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>8342</v>
+      </c>
+      <c r="F31" s="9">
+        <v>10020</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7894</v>
+      </c>
+      <c r="I31" s="9">
+        <v>6713</v>
+      </c>
+      <c r="J31" s="9">
         <v>9188</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>14966</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>12834</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>11362</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>19791</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>15</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>2949</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2906</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2538</v>
+      </c>
+      <c r="I33" s="9">
+        <v>14774</v>
+      </c>
+      <c r="J33" s="9">
         <v>-6408</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>18089</v>
       </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
         <v>718</v>
       </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>15</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <v>99</v>
       </c>
       <c r="F36" s="11">
+        <v>220</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="11">
+        <v>513</v>
+      </c>
+      <c r="I36" s="11">
+        <v>50</v>
+      </c>
+      <c r="J36" s="11">
+        <v>99</v>
+      </c>
+      <c r="K36" s="11">
         <v>75</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>1600</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>100</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1263,133 +1698,223 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
+      <c r="G37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
+      <c r="E38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>9647</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>-9637</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="9">
+        <v>20</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="9">
         <v>439</v>
       </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>0</v>
+      <c r="E41" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>14045</v>
+      </c>
+      <c r="F42" s="13">
+        <v>15116</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>12662</v>
+      </c>
+      <c r="I42" s="13">
+        <v>23051</v>
+      </c>
+      <c r="J42" s="13">
         <v>3902</v>
       </c>
-      <c r="F42" s="13">
+      <c r="K42" s="13">
         <v>33275</v>
       </c>
-      <c r="G42" s="13">
+      <c r="L42" s="13">
         <v>14434</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>24743</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>11284</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1398,8 +1923,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1408,8 +1938,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1418,10 +1953,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1440,8 +1980,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1450,318 +2005,518 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>0</v>
+        <v>-69242</v>
       </c>
       <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
+        <v>946</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="9">
+        <v>7115</v>
+      </c>
+      <c r="I48" s="9">
+        <v>-2710</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
         <v>18345</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>-18345</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>58396</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>412348</v>
+      </c>
+      <c r="F49" s="11">
+        <v>507401</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="11">
+        <v>519582</v>
+      </c>
+      <c r="I49" s="11">
+        <v>516770</v>
+      </c>
+      <c r="J49" s="11">
         <v>338875</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>49099</v>
       </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
         <v>750227</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>224566</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>3901121</v>
+      </c>
+      <c r="F50" s="9">
+        <v>6421000</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="9">
+        <v>4694218</v>
+      </c>
+      <c r="I50" s="9">
+        <v>4570740</v>
+      </c>
+      <c r="J50" s="9">
         <v>6934556</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>12807477</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>11484249</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>9458614</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>16306315</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <v>0</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>15</v>
+      <c r="F51" s="11">
+        <v>0</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>89523</v>
+      </c>
+      <c r="F52" s="9">
+        <v>131096</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="9">
+        <v>222434</v>
+      </c>
+      <c r="I52" s="9">
+        <v>718163</v>
+      </c>
+      <c r="J52" s="9">
         <v>9046</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>47469</v>
       </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
         <v>1929</v>
       </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>15</v>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>35376</v>
+      </c>
+      <c r="F55" s="11">
+        <v>106478</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="11">
+        <v>262406</v>
+      </c>
+      <c r="I55" s="11">
+        <v>31585</v>
+      </c>
+      <c r="J55" s="11">
         <v>67777</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>47380</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>1035566</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>70491</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>154913</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="9">
+        <v>-4405</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
         <v>78143</v>
       </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
+      <c r="E57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
         <v>8827</v>
       </c>
-      <c r="I57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="9">
+        <v>20</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9">
         <v>344975</v>
       </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
+        <v>4369126</v>
+      </c>
+      <c r="F60" s="15">
+        <v>7166921</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15">
+        <v>5705755</v>
+      </c>
+      <c r="I60" s="15">
+        <v>5830143</v>
+      </c>
+      <c r="J60" s="15">
         <v>7350254</v>
       </c>
-      <c r="F60" s="15">
+      <c r="K60" s="15">
         <v>13029568</v>
       </c>
-      <c r="G60" s="15">
+      <c r="L60" s="15">
         <v>12538160</v>
       </c>
-      <c r="H60" s="15">
+      <c r="M60" s="15">
         <v>10616718</v>
       </c>
-      <c r="I60" s="15">
+      <c r="N60" s="15">
         <v>16744190</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1770,8 +2525,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1780,8 +2540,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1790,10 +2555,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1812,8 +2582,23 @@
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1822,296 +2607,481 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>155309981</v>
+      </c>
+      <c r="F67" s="11">
+        <v>257563959</v>
+      </c>
+      <c r="G67" s="11">
+        <v>305442748</v>
+      </c>
+      <c r="H67" s="11">
+        <v>302610367</v>
+      </c>
+      <c r="I67" s="11">
+        <v>341327609</v>
+      </c>
+      <c r="J67" s="11">
         <v>331256109</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>338613793</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="11">
+      <c r="L67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="11">
         <v>302877271</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>248139227</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>467648166</v>
+      </c>
+      <c r="F68" s="9">
+        <v>640754416</v>
+      </c>
+      <c r="G68" s="9">
+        <v>733382833</v>
+      </c>
+      <c r="H68" s="9">
+        <v>594656448</v>
+      </c>
+      <c r="I68" s="9">
+        <v>680878892</v>
+      </c>
+      <c r="J68" s="9">
         <v>754740531</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>855771549</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>894830061</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>832477909</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>823925774</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>30357070</v>
+      </c>
+      <c r="F70" s="9">
+        <v>45112182</v>
+      </c>
+      <c r="G70" s="9">
+        <v>81399552</v>
+      </c>
+      <c r="H70" s="9">
+        <v>87641450</v>
+      </c>
+      <c r="I70" s="9">
+        <v>48609923</v>
+      </c>
+      <c r="J70" s="9">
         <v>-1411673</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>2624192</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="9">
+      <c r="L70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="9">
         <v>2686630</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N70" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>357333333</v>
+      </c>
+      <c r="F73" s="11">
+        <v>483990909</v>
+      </c>
+      <c r="G73" s="11">
+        <v>578880000</v>
+      </c>
+      <c r="H73" s="11">
+        <v>511512671</v>
+      </c>
+      <c r="I73" s="11">
+        <v>631700000</v>
+      </c>
+      <c r="J73" s="11">
         <v>684616162</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>631733333</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>647228750</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>704910000</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>688502222</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="11">
+        <v>20</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="11">
         <v>914999</v>
       </c>
-      <c r="I75" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N75" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="9">
+        <v>20</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="9">
         <v>785820046</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N76" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2120,8 +3090,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2130,8 +3105,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2140,10 +3120,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2162,8 +3147,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2172,205 +3172,330 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>0</v>
+        <v>-2128</v>
       </c>
       <c r="F83" s="9">
-        <v>0</v>
+        <v>-899</v>
       </c>
       <c r="G83" s="9">
-        <v>0</v>
+        <v>-22517</v>
       </c>
       <c r="H83" s="9">
-        <v>0</v>
+        <v>-13348</v>
       </c>
       <c r="I83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13348</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>-57291</v>
+      </c>
+      <c r="F84" s="11">
+        <v>-50903</v>
+      </c>
+      <c r="G84" s="11">
+        <v>-345849</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-145096</v>
+      </c>
+      <c r="I84" s="11">
+        <v>-244636</v>
+      </c>
+      <c r="J84" s="11">
         <v>-123397</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>-212889</v>
       </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="L84" s="11">
+        <v>0</v>
+      </c>
+      <c r="M84" s="11">
         <v>-459571</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>-309064</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>-1280769</v>
+      </c>
+      <c r="F85" s="9">
+        <v>-2057491</v>
+      </c>
+      <c r="G85" s="9">
+        <v>-1086079</v>
+      </c>
+      <c r="H85" s="9">
+        <v>-1625856</v>
+      </c>
+      <c r="I85" s="9">
+        <v>-1859430</v>
+      </c>
+      <c r="J85" s="9">
         <v>-2104561</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>-6821641</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>-4796156</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>-5361254</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>-10462685</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <v>0</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>-107561</v>
+      </c>
+      <c r="F87" s="9">
+        <v>-76809</v>
+      </c>
+      <c r="G87" s="9">
+        <v>-191646</v>
+      </c>
+      <c r="H87" s="9">
+        <v>-78359</v>
+      </c>
+      <c r="I87" s="9">
+        <v>-374039</v>
+      </c>
+      <c r="J87" s="9">
         <v>-17460</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>-217679</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9">
+      <c r="L87" s="9">
+        <v>0</v>
+      </c>
+      <c r="M87" s="9">
         <v>-47793</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>47793</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>15</v>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="9">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
+        <v>0</v>
+      </c>
+      <c r="N89" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-27236</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-83822</v>
+      </c>
+      <c r="G90" s="11">
+        <v>-57078</v>
+      </c>
+      <c r="H90" s="11">
+        <v>-208817</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-48616</v>
+      </c>
+      <c r="J90" s="11">
         <v>-45268</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>-67205</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>-799692</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>-49759</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>-112409</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
@@ -2379,111 +3504,186 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-      <c r="G91" s="9">
-        <v>0</v>
-      </c>
-      <c r="H91" s="9">
-        <v>0</v>
+      <c r="G91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I91" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="9">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0</v>
+      </c>
+      <c r="M91" s="9">
+        <v>0</v>
+      </c>
+      <c r="N91" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>15</v>
+      <c r="E92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
       </c>
       <c r="G92" s="11">
         <v>0</v>
       </c>
       <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11">
         <v>-5386</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>-223</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="9">
+        <v>20</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="9">
         <v>-39879</v>
       </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>-1474985</v>
+      </c>
+      <c r="F95" s="15">
+        <v>-2269924</v>
+      </c>
+      <c r="G95" s="15">
+        <v>-1703169</v>
+      </c>
+      <c r="H95" s="15">
+        <v>-2071476</v>
+      </c>
+      <c r="I95" s="15">
+        <v>-2513373</v>
+      </c>
+      <c r="J95" s="15">
         <v>-2290686</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>-7319414</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>-5595848</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>-5963642</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>-10836588</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2492,8 +3692,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2502,8 +3707,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2512,10 +3722,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2534,8 +3749,23 @@
       <c r="I99" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2544,314 +3774,514 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>0</v>
+        <v>-71370</v>
       </c>
       <c r="F101" s="9">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G101" s="9">
+        <v>-10474</v>
+      </c>
+      <c r="H101" s="9">
+        <v>-6233</v>
+      </c>
+      <c r="I101" s="9">
+        <v>6233</v>
+      </c>
+      <c r="J101" s="9">
+        <v>0</v>
+      </c>
+      <c r="K101" s="9">
+        <v>0</v>
+      </c>
+      <c r="L101" s="9">
         <v>18345</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>-18345</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>58396</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>355057</v>
+      </c>
+      <c r="F102" s="11">
+        <v>456498</v>
+      </c>
+      <c r="G102" s="11">
+        <v>-25745</v>
+      </c>
+      <c r="H102" s="11">
+        <v>374486</v>
+      </c>
+      <c r="I102" s="11">
+        <v>272134</v>
+      </c>
+      <c r="J102" s="11">
         <v>215478</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>-163790</v>
       </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="11">
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
         <v>290656</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>-84498</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>2620352</v>
+      </c>
+      <c r="F103" s="9">
+        <v>4363509</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1477094</v>
+      </c>
+      <c r="H103" s="9">
+        <v>3068362</v>
+      </c>
+      <c r="I103" s="9">
+        <v>2711310</v>
+      </c>
+      <c r="J103" s="9">
         <v>4829995</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>5985836</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>6688093</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>4097360</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>5843630</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <v>0</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F104" s="11">
+        <v>0</v>
+      </c>
+      <c r="G104" s="11">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
+        <v>0</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>-18038</v>
+      </c>
+      <c r="F105" s="9">
+        <v>54287</v>
+      </c>
+      <c r="G105" s="9">
+        <v>171803</v>
+      </c>
+      <c r="H105" s="9">
+        <v>144075</v>
+      </c>
+      <c r="I105" s="9">
+        <v>344124</v>
+      </c>
+      <c r="J105" s="9">
         <v>-8414</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>-170210</v>
       </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
         <v>-45864</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>47793</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>15</v>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>0</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="9">
-        <v>0</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>8140</v>
+      </c>
+      <c r="F108" s="11">
+        <v>22656</v>
+      </c>
+      <c r="G108" s="11">
+        <v>-28134</v>
+      </c>
+      <c r="H108" s="11">
+        <v>53589</v>
+      </c>
+      <c r="I108" s="11">
+        <v>-17031</v>
+      </c>
+      <c r="J108" s="11">
         <v>22509</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>-19825</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>235874</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>20732</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>42504</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
         <v>0</v>
       </c>
       <c r="F109" s="9">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="9">
+        <v>0</v>
+      </c>
+      <c r="J109" s="9">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9">
         <v>78143</v>
       </c>
-      <c r="G109" s="9">
-        <v>0</v>
-      </c>
-      <c r="H109" s="9">
-        <v>0</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L109" s="9">
+        <v>0</v>
+      </c>
+      <c r="M109" s="9">
+        <v>0</v>
+      </c>
+      <c r="N109" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11">
-        <v>0</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>15</v>
+      <c r="E110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0</v>
       </c>
       <c r="G110" s="11">
         <v>0</v>
       </c>
       <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
         <v>3441</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>-223</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="9">
+        <v>20</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="9">
         <v>305096</v>
       </c>
-      <c r="I111" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11">
-        <v>0</v>
-      </c>
-      <c r="F112" s="11">
-        <v>0</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="11">
-        <v>0</v>
-      </c>
-      <c r="I112" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
+        <v>2894141</v>
+      </c>
+      <c r="F113" s="15">
+        <v>4896997</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1584544</v>
+      </c>
+      <c r="H113" s="15">
+        <v>3634279</v>
+      </c>
+      <c r="I113" s="15">
+        <v>3316770</v>
+      </c>
+      <c r="J113" s="15">
         <v>5059568</v>
       </c>
-      <c r="F113" s="15">
+      <c r="K113" s="15">
         <v>5710154</v>
       </c>
-      <c r="G113" s="15">
+      <c r="L113" s="15">
         <v>6942312</v>
       </c>
-      <c r="H113" s="15">
+      <c r="M113" s="15">
         <v>4653076</v>
       </c>
-      <c r="I113" s="15">
+      <c r="N113" s="15">
         <v>5907602</v>
       </c>
     </row>

--- a/database/industries/felezat/fasmin/product/quarterly.xlsx
+++ b/database/industries/felezat/fasmin/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67222995-0A97-446F-873A-CEC1859E39DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="41">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -132,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -302,7 +318,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -314,7 +330,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -361,6 +377,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -547,17 +597,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N113"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -566,8 +616,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +633,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,8 +650,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -600,8 +665,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -612,8 +682,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -624,8 +699,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,8 +714,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -656,8 +741,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -666,13 +766,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
@@ -682,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -690,133 +795,223 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1387</v>
+      </c>
+      <c r="F11" s="11">
+        <v>814</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1231</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1334</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1370</v>
+      </c>
+      <c r="J11" s="11">
         <v>774</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>982</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>913</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>1058</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>1004</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>7687</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8931</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8878</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9671</v>
+      </c>
+      <c r="I12" s="9">
+        <v>9000</v>
+      </c>
+      <c r="J12" s="9">
         <v>10564</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>9890</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>11034</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>15989</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>10576</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="E13" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>40469</v>
+      </c>
+      <c r="F14" s="9">
+        <v>39886</v>
+      </c>
+      <c r="G14" s="9">
+        <v>33801</v>
+      </c>
+      <c r="H14" s="9">
+        <v>48344</v>
+      </c>
+      <c r="I14" s="9">
+        <v>54816</v>
+      </c>
+      <c r="J14" s="9">
         <v>21813</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>41901</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L14" s="9">
         <v>51245</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M14" s="9">
         <v>50797</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>48101</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>15</v>
+      <c r="E15" s="11">
+        <v>9807</v>
       </c>
       <c r="F15" s="11">
+        <v>5205</v>
+      </c>
+      <c r="G15" s="11">
+        <v>545</v>
+      </c>
+      <c r="H15" s="11">
+        <v>585</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11">
         <v>6916</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>8644</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>9793</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>12108</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
@@ -834,170 +1029,290 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
+      <c r="E18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>0</v>
+      <c r="E19" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>610174</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>-610174</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>0</v>
+      <c r="E22" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>59350</v>
+      </c>
+      <c r="F23" s="13">
+        <v>54836</v>
+      </c>
+      <c r="G23" s="13">
+        <v>47205</v>
+      </c>
+      <c r="H23" s="13">
+        <v>59934</v>
+      </c>
+      <c r="I23" s="13">
+        <v>65186</v>
+      </c>
+      <c r="J23" s="13">
         <v>33151</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>59689</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>71836</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>687811</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>-538385</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1006,8 +1321,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1016,8 +1336,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1026,10 +1351,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1048,8 +1378,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1058,13 +1403,18 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
@@ -1073,8 +1423,8 @@
       <c r="F29" s="9">
         <v>0</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
+      <c r="G29" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H29" s="9">
         <v>0</v>
@@ -1082,178 +1432,298 @@
       <c r="I29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>2655</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1970</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1717</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1514</v>
+      </c>
+      <c r="J30" s="11">
         <v>1023</v>
       </c>
-      <c r="F30" s="11">
+      <c r="K30" s="11">
         <v>145</v>
       </c>
-      <c r="G30" s="11">
-        <v>0</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
         <v>2477</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>8342</v>
+      </c>
+      <c r="F31" s="9">
+        <v>10020</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7894</v>
+      </c>
+      <c r="I31" s="9">
+        <v>6713</v>
+      </c>
+      <c r="J31" s="9">
         <v>9188</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>14966</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>12834</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>11362</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>19791</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>15</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>11</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>2949</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2906</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="9">
+        <v>2538</v>
+      </c>
+      <c r="I33" s="9">
+        <v>14774</v>
+      </c>
+      <c r="J33" s="9">
         <v>-6408</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>18089</v>
       </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
         <v>718</v>
       </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>15</v>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
         <v>99</v>
       </c>
       <c r="F36" s="11">
+        <v>220</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="11">
+        <v>513</v>
+      </c>
+      <c r="I36" s="11">
+        <v>50</v>
+      </c>
+      <c r="J36" s="11">
+        <v>99</v>
+      </c>
+      <c r="K36" s="11">
         <v>75</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>1600</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>100</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1263,133 +1733,223 @@
       <c r="F37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
+      <c r="G37" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
+      <c r="E38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>9647</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>-9637</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="9">
+        <v>20</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="9">
         <v>439</v>
       </c>
-      <c r="I39" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="11">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>0</v>
+      <c r="E41" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13">
+        <v>14045</v>
+      </c>
+      <c r="F42" s="13">
+        <v>15116</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <v>12662</v>
+      </c>
+      <c r="I42" s="13">
+        <v>23051</v>
+      </c>
+      <c r="J42" s="13">
         <v>3902</v>
       </c>
-      <c r="F42" s="13">
+      <c r="K42" s="13">
         <v>33275</v>
       </c>
-      <c r="G42" s="13">
+      <c r="L42" s="13">
         <v>14434</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>24743</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>11284</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1398,8 +1958,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1408,8 +1973,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1418,10 +1988,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1440,8 +2015,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1450,318 +2040,518 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>0</v>
+        <v>-69242</v>
       </c>
       <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
+        <v>946</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="9">
+        <v>7115</v>
+      </c>
+      <c r="I48" s="9">
+        <v>-2710</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
         <v>18345</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>-18345</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>58396</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>412348</v>
+      </c>
+      <c r="F49" s="11">
+        <v>507401</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="11">
+        <v>519582</v>
+      </c>
+      <c r="I49" s="11">
+        <v>516770</v>
+      </c>
+      <c r="J49" s="11">
         <v>338875</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>49099</v>
       </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+      <c r="M49" s="11">
         <v>750227</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>224566</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>3901121</v>
+      </c>
+      <c r="F50" s="9">
+        <v>6421000</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="9">
+        <v>4694218</v>
+      </c>
+      <c r="I50" s="9">
+        <v>4570740</v>
+      </c>
+      <c r="J50" s="9">
         <v>6934556</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>12807477</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>11484249</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>9458614</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>16306315</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <v>0</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>15</v>
+      <c r="F51" s="11">
+        <v>0</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>89523</v>
+      </c>
+      <c r="F52" s="9">
+        <v>131096</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="9">
+        <v>222434</v>
+      </c>
+      <c r="I52" s="9">
+        <v>718163</v>
+      </c>
+      <c r="J52" s="9">
         <v>9046</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>47469</v>
       </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
         <v>1929</v>
       </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>15</v>
+      <c r="E53" s="11">
+        <v>0</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>35376</v>
+      </c>
+      <c r="F55" s="11">
+        <v>106478</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="11">
+        <v>262406</v>
+      </c>
+      <c r="I55" s="11">
+        <v>31585</v>
+      </c>
+      <c r="J55" s="11">
         <v>67777</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>47380</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>1035566</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>70491</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>154913</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
         <v>0</v>
       </c>
       <c r="F56" s="9">
+        <v>0</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="9">
+        <v>-4405</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
         <v>78143</v>
       </c>
-      <c r="G56" s="9">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
+      <c r="E57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="H57" s="11">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11">
+        <v>0</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="11">
+        <v>0</v>
+      </c>
+      <c r="M57" s="11">
         <v>8827</v>
       </c>
-      <c r="I57" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="9">
+        <v>20</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="9">
         <v>344975</v>
       </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15">
+        <v>4369126</v>
+      </c>
+      <c r="F60" s="15">
+        <v>7166921</v>
+      </c>
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15">
+        <v>5705755</v>
+      </c>
+      <c r="I60" s="15">
+        <v>5830143</v>
+      </c>
+      <c r="J60" s="15">
         <v>7350254</v>
       </c>
-      <c r="F60" s="15">
+      <c r="K60" s="15">
         <v>13029568</v>
       </c>
-      <c r="G60" s="15">
+      <c r="L60" s="15">
         <v>12538160</v>
       </c>
-      <c r="H60" s="15">
+      <c r="M60" s="15">
         <v>10616718</v>
       </c>
-      <c r="I60" s="15">
+      <c r="N60" s="15">
         <v>16744190</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1770,8 +2560,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1780,8 +2575,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1790,10 +2590,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -1812,8 +2617,23 @@
       <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1822,296 +2642,481 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
+        <v>155309981</v>
+      </c>
+      <c r="F67" s="11">
+        <v>257563959</v>
+      </c>
+      <c r="G67" s="11">
+        <v>305442748</v>
+      </c>
+      <c r="H67" s="11">
+        <v>302610367</v>
+      </c>
+      <c r="I67" s="11">
+        <v>341327609</v>
+      </c>
+      <c r="J67" s="11">
         <v>331256109</v>
       </c>
-      <c r="F67" s="11">
+      <c r="K67" s="11">
         <v>338613793</v>
       </c>
-      <c r="G67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H67" s="11">
+      <c r="L67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="11">
         <v>302877271</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>248139227</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
+        <v>467648166</v>
+      </c>
+      <c r="F68" s="9">
+        <v>640754416</v>
+      </c>
+      <c r="G68" s="9">
+        <v>733382833</v>
+      </c>
+      <c r="H68" s="9">
+        <v>594656448</v>
+      </c>
+      <c r="I68" s="9">
+        <v>680878892</v>
+      </c>
+      <c r="J68" s="9">
         <v>754740531</v>
       </c>
-      <c r="F68" s="9">
+      <c r="K68" s="9">
         <v>855771549</v>
       </c>
-      <c r="G68" s="9">
+      <c r="L68" s="9">
         <v>894830061</v>
       </c>
-      <c r="H68" s="9">
+      <c r="M68" s="9">
         <v>832477909</v>
       </c>
-      <c r="I68" s="9">
+      <c r="N68" s="9">
         <v>823925774</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>30357070</v>
+      </c>
+      <c r="F70" s="9">
+        <v>45112182</v>
+      </c>
+      <c r="G70" s="9">
+        <v>81399552</v>
+      </c>
+      <c r="H70" s="9">
+        <v>87641450</v>
+      </c>
+      <c r="I70" s="9">
+        <v>48609923</v>
+      </c>
+      <c r="J70" s="9">
         <v>-1411673</v>
       </c>
-      <c r="F70" s="9">
+      <c r="K70" s="9">
         <v>2624192</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="9">
+      <c r="L70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="9">
         <v>2686630</v>
       </c>
-      <c r="I70" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N70" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>357333333</v>
+      </c>
+      <c r="F73" s="11">
+        <v>483990909</v>
+      </c>
+      <c r="G73" s="11">
+        <v>578880000</v>
+      </c>
+      <c r="H73" s="11">
+        <v>511512671</v>
+      </c>
+      <c r="I73" s="11">
+        <v>631700000</v>
+      </c>
+      <c r="J73" s="11">
         <v>684616162</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>631733333</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>647228750</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>704910000</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>688502222</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="11">
+        <v>20</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="11">
         <v>914999</v>
       </c>
-      <c r="I75" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N75" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="9">
+        <v>20</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="9">
         <v>785820046</v>
       </c>
-      <c r="I76" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N76" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2120,8 +3125,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2130,8 +3140,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2140,10 +3155,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2162,8 +3182,23 @@
       <c r="I81" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2172,205 +3207,330 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>0</v>
+        <v>-2128</v>
       </c>
       <c r="F83" s="9">
-        <v>0</v>
+        <v>-899</v>
       </c>
       <c r="G83" s="9">
-        <v>0</v>
+        <v>-22517</v>
       </c>
       <c r="H83" s="9">
-        <v>0</v>
+        <v>-13348</v>
       </c>
       <c r="I83" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13348</v>
+      </c>
+      <c r="J83" s="9">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>-57291</v>
+      </c>
+      <c r="F84" s="11">
+        <v>-50903</v>
+      </c>
+      <c r="G84" s="11">
+        <v>-345849</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-145096</v>
+      </c>
+      <c r="I84" s="11">
+        <v>-244636</v>
+      </c>
+      <c r="J84" s="11">
         <v>-123397</v>
       </c>
-      <c r="F84" s="11">
+      <c r="K84" s="11">
         <v>-212889</v>
       </c>
-      <c r="G84" s="11">
-        <v>0</v>
-      </c>
-      <c r="H84" s="11">
+      <c r="L84" s="11">
+        <v>0</v>
+      </c>
+      <c r="M84" s="11">
         <v>-459571</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>-309064</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>-1280769</v>
+      </c>
+      <c r="F85" s="9">
+        <v>-2057491</v>
+      </c>
+      <c r="G85" s="9">
+        <v>-1086079</v>
+      </c>
+      <c r="H85" s="9">
+        <v>-1625856</v>
+      </c>
+      <c r="I85" s="9">
+        <v>-1859430</v>
+      </c>
+      <c r="J85" s="9">
         <v>-2104561</v>
       </c>
-      <c r="F85" s="9">
+      <c r="K85" s="9">
         <v>-6821641</v>
       </c>
-      <c r="G85" s="9">
+      <c r="L85" s="9">
         <v>-4796156</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>-5361254</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>-10462685</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
         <v>0</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F86" s="11">
+        <v>0</v>
+      </c>
+      <c r="G86" s="11">
+        <v>0</v>
+      </c>
+      <c r="H86" s="11">
+        <v>0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>0</v>
+      </c>
+      <c r="J86" s="11">
+        <v>0</v>
+      </c>
+      <c r="K86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N86" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>-107561</v>
+      </c>
+      <c r="F87" s="9">
+        <v>-76809</v>
+      </c>
+      <c r="G87" s="9">
+        <v>-191646</v>
+      </c>
+      <c r="H87" s="9">
+        <v>-78359</v>
+      </c>
+      <c r="I87" s="9">
+        <v>-374039</v>
+      </c>
+      <c r="J87" s="9">
         <v>-17460</v>
       </c>
-      <c r="F87" s="9">
+      <c r="K87" s="9">
         <v>-217679</v>
       </c>
-      <c r="G87" s="9">
-        <v>0</v>
-      </c>
-      <c r="H87" s="9">
+      <c r="L87" s="9">
+        <v>0</v>
+      </c>
+      <c r="M87" s="9">
         <v>-47793</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>47793</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>15</v>
+      <c r="E88" s="11">
+        <v>0</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="9">
-        <v>0</v>
-      </c>
-      <c r="G89" s="9">
-        <v>0</v>
-      </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="9">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9">
+        <v>0</v>
+      </c>
+      <c r="N89" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-27236</v>
+      </c>
+      <c r="F90" s="11">
+        <v>-83822</v>
+      </c>
+      <c r="G90" s="11">
+        <v>-57078</v>
+      </c>
+      <c r="H90" s="11">
+        <v>-208817</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-48616</v>
+      </c>
+      <c r="J90" s="11">
         <v>-45268</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>-67205</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>-799692</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>-49759</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>-112409</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
@@ -2379,111 +3539,186 @@
       <c r="F91" s="9">
         <v>0</v>
       </c>
-      <c r="G91" s="9">
-        <v>0</v>
-      </c>
-      <c r="H91" s="9">
-        <v>0</v>
+      <c r="G91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="I91" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="9">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9">
+        <v>0</v>
+      </c>
+      <c r="M91" s="9">
+        <v>0</v>
+      </c>
+      <c r="N91" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11">
-        <v>0</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>15</v>
+      <c r="E92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
       </c>
       <c r="G92" s="11">
         <v>0</v>
       </c>
       <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="11">
+        <v>0</v>
+      </c>
+      <c r="M92" s="11">
         <v>-5386</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>-223</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H93" s="9">
+        <v>20</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="9">
         <v>-39879</v>
       </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="11">
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="11">
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11">
-        <v>0</v>
-      </c>
-      <c r="F94" s="11">
-        <v>0</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>-1474985</v>
+      </c>
+      <c r="F95" s="15">
+        <v>-2269924</v>
+      </c>
+      <c r="G95" s="15">
+        <v>-1703169</v>
+      </c>
+      <c r="H95" s="15">
+        <v>-2071476</v>
+      </c>
+      <c r="I95" s="15">
+        <v>-2513373</v>
+      </c>
+      <c r="J95" s="15">
         <v>-2290686</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>-7319414</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>-5595848</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>-5963642</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>-10836588</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2492,8 +3727,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2502,8 +3742,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2512,10 +3757,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2534,8 +3784,23 @@
       <c r="I99" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2544,314 +3809,514 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>0</v>
+        <v>-71370</v>
       </c>
       <c r="F101" s="9">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G101" s="9">
+        <v>-10474</v>
+      </c>
+      <c r="H101" s="9">
+        <v>-6233</v>
+      </c>
+      <c r="I101" s="9">
+        <v>6233</v>
+      </c>
+      <c r="J101" s="9">
+        <v>0</v>
+      </c>
+      <c r="K101" s="9">
+        <v>0</v>
+      </c>
+      <c r="L101" s="9">
         <v>18345</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>-18345</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>58396</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>355057</v>
+      </c>
+      <c r="F102" s="11">
+        <v>456498</v>
+      </c>
+      <c r="G102" s="11">
+        <v>-25745</v>
+      </c>
+      <c r="H102" s="11">
+        <v>374486</v>
+      </c>
+      <c r="I102" s="11">
+        <v>272134</v>
+      </c>
+      <c r="J102" s="11">
         <v>215478</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>-163790</v>
       </c>
-      <c r="G102" s="11">
-        <v>0</v>
-      </c>
-      <c r="H102" s="11">
+      <c r="L102" s="11">
+        <v>0</v>
+      </c>
+      <c r="M102" s="11">
         <v>290656</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>-84498</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>2620352</v>
+      </c>
+      <c r="F103" s="9">
+        <v>4363509</v>
+      </c>
+      <c r="G103" s="9">
+        <v>1477094</v>
+      </c>
+      <c r="H103" s="9">
+        <v>3068362</v>
+      </c>
+      <c r="I103" s="9">
+        <v>2711310</v>
+      </c>
+      <c r="J103" s="9">
         <v>4829995</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>5985836</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>6688093</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>4097360</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>5843630</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
         <v>0</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F104" s="11">
+        <v>0</v>
+      </c>
+      <c r="G104" s="11">
+        <v>0</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0</v>
+      </c>
+      <c r="I104" s="11">
+        <v>0</v>
+      </c>
+      <c r="J104" s="11">
+        <v>0</v>
+      </c>
+      <c r="K104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M104" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N104" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>-18038</v>
+      </c>
+      <c r="F105" s="9">
+        <v>54287</v>
+      </c>
+      <c r="G105" s="9">
+        <v>171803</v>
+      </c>
+      <c r="H105" s="9">
+        <v>144075</v>
+      </c>
+      <c r="I105" s="9">
+        <v>344124</v>
+      </c>
+      <c r="J105" s="9">
         <v>-8414</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>-170210</v>
       </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
+      <c r="L105" s="9">
+        <v>0</v>
+      </c>
+      <c r="M105" s="9">
         <v>-45864</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>47793</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>15</v>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>0</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="9">
-        <v>0</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K107" s="9">
+        <v>0</v>
+      </c>
+      <c r="L107" s="9">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>8140</v>
+      </c>
+      <c r="F108" s="11">
+        <v>22656</v>
+      </c>
+      <c r="G108" s="11">
+        <v>-28134</v>
+      </c>
+      <c r="H108" s="11">
+        <v>53589</v>
+      </c>
+      <c r="I108" s="11">
+        <v>-17031</v>
+      </c>
+      <c r="J108" s="11">
         <v>22509</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>-19825</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>235874</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>20732</v>
       </c>
-      <c r="I108" s="11">
+      <c r="N108" s="11">
         <v>42504</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
         <v>0</v>
       </c>
       <c r="F109" s="9">
+        <v>0</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="9">
+        <v>0</v>
+      </c>
+      <c r="J109" s="9">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9">
         <v>78143</v>
       </c>
-      <c r="G109" s="9">
-        <v>0</v>
-      </c>
-      <c r="H109" s="9">
-        <v>0</v>
-      </c>
-      <c r="I109" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L109" s="9">
+        <v>0</v>
+      </c>
+      <c r="M109" s="9">
+        <v>0</v>
+      </c>
+      <c r="N109" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11">
-        <v>0</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>15</v>
+      <c r="E110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="11">
+        <v>0</v>
       </c>
       <c r="G110" s="11">
         <v>0</v>
       </c>
       <c r="H110" s="11">
+        <v>0</v>
+      </c>
+      <c r="I110" s="11">
+        <v>0</v>
+      </c>
+      <c r="J110" s="11">
+        <v>0</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="11">
+        <v>0</v>
+      </c>
+      <c r="M110" s="11">
         <v>3441</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>-223</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" s="9">
+        <v>20</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="9">
         <v>305096</v>
       </c>
-      <c r="I111" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N111" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="11">
+        <v>0</v>
+      </c>
+      <c r="K112" s="11">
+        <v>0</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="11">
+        <v>0</v>
+      </c>
+      <c r="N112" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11">
-        <v>0</v>
-      </c>
-      <c r="F112" s="11">
-        <v>0</v>
-      </c>
-      <c r="G112" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H112" s="11">
-        <v>0</v>
-      </c>
-      <c r="I112" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15">
+        <v>2894141</v>
+      </c>
+      <c r="F113" s="15">
+        <v>4896997</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1584544</v>
+      </c>
+      <c r="H113" s="15">
+        <v>3634279</v>
+      </c>
+      <c r="I113" s="15">
+        <v>3316770</v>
+      </c>
+      <c r="J113" s="15">
         <v>5059568</v>
       </c>
-      <c r="F113" s="15">
+      <c r="K113" s="15">
         <v>5710154</v>
       </c>
-      <c r="G113" s="15">
+      <c r="L113" s="15">
         <v>6942312</v>
       </c>
-      <c r="H113" s="15">
+      <c r="M113" s="15">
         <v>4653076</v>
       </c>
-      <c r="I113" s="15">
+      <c r="N113" s="15">
         <v>5907602</v>
       </c>
     </row>

--- a/database/industries/felezat/fasmin/product/quarterly.xlsx
+++ b/database/industries/felezat/fasmin/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67222995-0A97-446F-873A-CEC1859E39DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720BF7C-103C-4025-9601-7ED2B64A0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -602,12 +602,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -622,7 +622,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -656,7 +656,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -671,7 +671,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -720,7 +720,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -757,7 +757,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -772,7 +772,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
@@ -850,7 +850,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -889,7 +889,7 @@
         <v>10576</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -967,7 +967,7 @@
         <v>48101</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>12108</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>-610174</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>-538385</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1327,7 +1327,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1342,7 +1342,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1357,7 +1357,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1409,7 +1409,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>19791</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>19</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>21</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>23</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>25</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>-9637</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>28</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>28</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>11284</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1979,7 +1979,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1994,7 +1994,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>33</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2046,7 +2046,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>58396</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>17</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>224566</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>16306315</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>21</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>31</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>22</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>23</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>154913</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>25</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>26</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>27</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>28</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>29</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>16744190</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2566,7 +2566,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2581,7 +2581,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2596,7 +2596,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>35</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2648,7 +2648,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>15</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>248139227</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>18</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>823925774</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>31</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>22</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>23</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>688502222</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>25</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>26</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>27</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>28</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3131,7 +3131,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3146,7 +3146,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3161,7 +3161,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>39</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3213,7 +3213,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>15</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>17</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>-309064</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>18</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>-10462685</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>19</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>21</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>47793</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>31</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>22</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>23</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>-112409</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>25</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>26</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>-223</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>27</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>28</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>29</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>-10836588</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3733,7 +3733,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3748,7 +3748,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3763,7 +3763,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>40</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3815,7 +3815,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>15</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>58396</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>17</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>-84498</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>18</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>5843630</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>19</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>21</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>47793</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>31</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>22</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>23</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>42504</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>25</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>26</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>-223</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>27</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>28</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>29</v>
       </c>
